--- a/WebContent/productTemplate.xlsx
+++ b/WebContent/productTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>barcode #/条码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>min Stock/最小库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tracking id/库存位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -424,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -441,10 +445,11 @@
     <col min="7" max="7" width="11.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="21.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="38.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="35.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -475,6 +480,12 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
